--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19915,6 +19915,43 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19952,6 +19952,43 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19989,6 +19989,43 @@
         </is>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I534"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20026,6 +20026,43 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20063,6 +20063,43 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20100,6 +20100,41 @@
         </is>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I537" t="n">
+        <v>160000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20135,6 +20135,43 @@
         <v>160000</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20172,6 +20172,43 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20209,6 +20209,43 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20246,6 +20246,43 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20283,6 +20283,43 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20320,6 +20320,43 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20357,6 +20357,80 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20431,6 +20431,80 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20505,6 +20505,43 @@
         </is>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20542,6 +20542,43 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20579,6 +20579,43 @@
         </is>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20616,6 +20616,43 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20653,6 +20653,80 @@
         </is>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20727,6 +20727,43 @@
         </is>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20764,6 +20764,43 @@
         </is>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18112,11 +18112,11 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1574985600</v>
+        <v>1574294400</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -18141,19 +18141,17 @@
       <c r="H483" t="n">
         <v>0.165</v>
       </c>
-      <c r="I483" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I483" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1575244800</v>
+        <v>1574985600</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -18186,11 +18184,11 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1575331200</v>
+        <v>1575244800</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -18223,11 +18221,11 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1575417600</v>
+        <v>1575331200</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -18260,11 +18258,11 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1575504000</v>
+        <v>1575417600</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -18289,17 +18287,19 @@
       <c r="H487" t="n">
         <v>0.165</v>
       </c>
-      <c r="I487" t="n">
-        <v>770000</v>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1575590400</v>
+        <v>1575504000</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -18324,19 +18324,17 @@
       <c r="H488" t="n">
         <v>0.165</v>
       </c>
-      <c r="I488" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I488" t="n">
+        <v>770000</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1575849600</v>
+        <v>1575590400</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -18369,11 +18367,11 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1575936000</v>
+        <v>1575849600</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -18406,11 +18404,11 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1576022400</v>
+        <v>1575936000</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -18443,11 +18441,11 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1576108800</v>
+        <v>1576022400</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -18480,11 +18478,11 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1576195200</v>
+        <v>1576108800</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -18517,11 +18515,11 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1576454400</v>
+        <v>1576195200</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -18554,11 +18552,11 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1576540800</v>
+        <v>1576454400</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -18591,11 +18589,11 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1576627200</v>
+        <v>1576540800</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -18628,11 +18626,11 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1576713600</v>
+        <v>1576627200</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -18665,11 +18663,11 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1576800000</v>
+        <v>1576713600</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -18702,11 +18700,11 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1577059200</v>
+        <v>1576800000</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -18739,11 +18737,11 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1577145600</v>
+        <v>1577059200</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -18776,11 +18774,11 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1577318400</v>
+        <v>1577145600</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -18813,11 +18811,11 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1577404800</v>
+        <v>1577318400</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -18850,11 +18848,11 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1577664000</v>
+        <v>1577404800</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -18887,11 +18885,11 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1577750400</v>
+        <v>1577664000</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -18924,11 +18922,11 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1577923200</v>
+        <v>1577750400</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -18961,11 +18959,11 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1578009600</v>
+        <v>1577923200</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -18998,11 +18996,11 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1578268800</v>
+        <v>1578009600</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -19035,11 +19033,11 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1578355200</v>
+        <v>1578268800</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -19072,11 +19070,11 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1578441600</v>
+        <v>1578355200</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -19109,11 +19107,11 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1578528000</v>
+        <v>1578441600</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -19146,11 +19144,11 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1578614400</v>
+        <v>1578528000</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -19183,11 +19181,11 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1578873600</v>
+        <v>1578614400</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -19220,11 +19218,11 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1578960000</v>
+        <v>1578873600</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -19257,11 +19255,11 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1579046400</v>
+        <v>1578960000</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -19294,11 +19292,11 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1579132800</v>
+        <v>1579046400</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -19331,11 +19329,11 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1579219200</v>
+        <v>1579132800</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -19368,11 +19366,11 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1579478400</v>
+        <v>1579219200</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -19405,11 +19403,11 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1579564800</v>
+        <v>1579478400</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -19442,11 +19440,11 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1579651200</v>
+        <v>1579564800</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -19471,17 +19469,19 @@
       <c r="H519" t="n">
         <v>0.165</v>
       </c>
-      <c r="I519" t="n">
-        <v>770000</v>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1579737600</v>
+        <v>1579651200</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -19506,19 +19506,17 @@
       <c r="H520" t="n">
         <v>0.165</v>
       </c>
-      <c r="I520" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I520" t="n">
+        <v>770000</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1579824000</v>
+        <v>1579737600</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -19551,11 +19549,11 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1580169600</v>
+        <v>1579824000</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -19580,17 +19578,19 @@
       <c r="H522" t="n">
         <v>0.165</v>
       </c>
-      <c r="I522" t="n">
-        <v>384000</v>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1580256000</v>
+        <v>1580169600</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -19615,19 +19615,17 @@
       <c r="H523" t="n">
         <v>0.165</v>
       </c>
-      <c r="I523" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I523" t="n">
+        <v>384000</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1580342400</v>
+        <v>1580256000</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -19660,11 +19658,11 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1580428800</v>
+        <v>1580342400</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -19678,28 +19676,30 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="F525" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="G525" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="H525" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I525" t="n">
-        <v>50000</v>
+        <v>0.165</v>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1580688000</v>
+        <v>1580428800</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -19724,19 +19724,17 @@
       <c r="H526" t="n">
         <v>0.15</v>
       </c>
-      <c r="I526" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I526" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1580774400</v>
+        <v>1580688000</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -19769,11 +19767,11 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1580860800</v>
+        <v>1580774400</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -19806,11 +19804,11 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1580947200</v>
+        <v>1580860800</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -19843,11 +19841,11 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1581033600</v>
+        <v>1580947200</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -19880,11 +19878,11 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>1581292800</v>
+        <v>1581033600</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -19917,11 +19915,11 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1581379200</v>
+        <v>1581292800</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -19954,11 +19952,11 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1581465600</v>
+        <v>1581379200</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -19991,11 +19989,11 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1581552000</v>
+        <v>1581465600</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -20028,11 +20026,11 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>1581638400</v>
+        <v>1581552000</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -20065,11 +20063,11 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1581897600</v>
+        <v>1581638400</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -20102,11 +20100,11 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1581984000</v>
+        <v>1581897600</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -20120,28 +20118,30 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
       <c r="F537" t="n">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
       <c r="G537" t="n">
-        <v>0.095</v>
+        <v>0.15</v>
       </c>
       <c r="H537" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="I537" t="n">
-        <v>160000</v>
+        <v>0.15</v>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1582070400</v>
+        <v>1581984000</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -20155,10 +20155,10 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="F538" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G538" t="n">
         <v>0.095</v>
@@ -20166,19 +20166,17 @@
       <c r="H538" t="n">
         <v>0.095</v>
       </c>
-      <c r="I538" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I538" t="n">
+        <v>160000</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1582156800</v>
+        <v>1582070400</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -20211,11 +20209,11 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1582243200</v>
+        <v>1582156800</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -20248,11 +20246,11 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1582502400</v>
+        <v>1582243200</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -20285,11 +20283,11 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1582588800</v>
+        <v>1582502400</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -20322,11 +20320,11 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1582675200</v>
+        <v>1582588800</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -20359,11 +20357,11 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1582761600</v>
+        <v>1582675200</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -20396,11 +20394,11 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1582848000</v>
+        <v>1582761600</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -20433,11 +20431,11 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1583107200</v>
+        <v>1582848000</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -20470,11 +20468,11 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1583193600</v>
+        <v>1583107200</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -20507,11 +20505,11 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>1583280000</v>
+        <v>1583193600</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -20544,11 +20542,11 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1583366400</v>
+        <v>1583280000</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -20581,11 +20579,11 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>1583452800</v>
+        <v>1583366400</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -20618,11 +20616,11 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1583712000</v>
+        <v>1583452800</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -20655,11 +20653,11 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>1583798400</v>
+        <v>1583712000</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -20692,11 +20690,11 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>1583884800</v>
+        <v>1583798400</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -20729,11 +20727,11 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>1583971200</v>
+        <v>1583884800</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -20766,11 +20764,11 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>1584057600</v>
+        <v>1583971200</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -20796,6 +20794,43 @@
         <v>0.095</v>
       </c>
       <c r="I555" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I556" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20836,6 +20836,43 @@
         </is>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20873,6 +20873,43 @@
         </is>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20910,6 +20910,43 @@
         </is>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20947,6 +20947,43 @@
         </is>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20984,6 +20984,43 @@
         </is>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21021,6 +21021,43 @@
         </is>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21058,6 +21058,43 @@
         </is>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21095,6 +21095,43 @@
         </is>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21132,6 +21132,43 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21169,6 +21169,43 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I566"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21206,6 +21206,43 @@
         </is>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I567"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21243,6 +21243,43 @@
         </is>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21280,6 +21280,43 @@
         </is>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21317,6 +21317,43 @@
         </is>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21354,6 +21354,43 @@
         </is>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21391,6 +21391,43 @@
         </is>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21428,6 +21428,43 @@
         </is>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21465,6 +21465,43 @@
         </is>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21502,6 +21502,43 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I575"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21539,6 +21539,43 @@
         </is>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I576"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21576,6 +21576,43 @@
         </is>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21613,6 +21613,43 @@
         </is>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21650,6 +21650,43 @@
         </is>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21687,6 +21687,43 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I580"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21724,6 +21724,43 @@
         </is>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21761,6 +21761,80 @@
         </is>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I583"/>
+  <dimension ref="A1:I587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21835,6 +21835,154 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I587"/>
+  <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21983,6 +21983,43 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I588"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22020,6 +22020,43 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03001.xlsx
+++ b/data/03001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22057,6 +22057,115 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I591" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>03001</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>CLOUD</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
